--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Acadêmico Juliano Zanoni\Engenharia de Software\Projetos Engenharia\Projetos\lotofacil-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB243705-35E8-4D39-A64B-835B01F4D547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0812CC6-F45F-4FDB-B1CB-BA407EB0E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9EDA9EE-8187-4FED-BC43-F21A17A7C0C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="3423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="3429">
   <si>
     <t>Número do Sorteio</t>
   </si>
@@ -10294,6 +10294,24 @@
   </si>
   <si>
     <t>01 - 02 - 03 - 04 - 08 - 11 - 12 - 14 - 15 - 17 - 18 - 19 - 20 - 22 - 23</t>
+  </si>
+  <si>
+    <t>03 - 06 - 08 - 11 - 13 - 16 - 17 - 18 - 19 - 20 - 21 - 22 - 23 - 24 - 25</t>
+  </si>
+  <si>
+    <t>04 - 05 - 06 - 07 - 08 - 09 - 10 - 11 - 13 - 15 - 16 - 17 - 21 - 24 - 25</t>
+  </si>
+  <si>
+    <t>01 - 04 - 05 - 06 - 08 - 10 - 11 - 12 - 13 - 15 - 16 - 17 - 18 - 20 - 21</t>
+  </si>
+  <si>
+    <t>01 - 02 - 06 - 07 - 09 - 10 - 11 - 15 - 17 - 18 - 19 - 20 - 21 - 22 - 24</t>
+  </si>
+  <si>
+    <t>03 - 05 - 07 - 11 - 12 - 13 - 14 - 15 - 16 - 19 - 20 - 22 - 23 - 24 - 25</t>
+  </si>
+  <si>
+    <t>01 - 02 - 03 - 05 - 07 - 08 - 09 - 14 - 15 - 16 - 17 - 19 - 20 - 21 - 24</t>
   </si>
 </sst>
 </file>
@@ -10687,10 +10705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8ABE4-1F86-44D5-86FA-D51D7F1B2EC5}">
-  <dimension ref="A1:B3424"/>
+  <dimension ref="A1:B3430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3425" sqref="A3425"/>
+    <sheetView tabSelected="1" topLeftCell="A3414" workbookViewId="0">
+      <selection activeCell="E3434" sqref="E3434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38091,6 +38109,54 @@
         <v>3422</v>
       </c>
     </row>
+    <row r="3425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3425" s="1">
+        <v>3424</v>
+      </c>
+      <c r="B3425" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3426" s="1">
+        <v>3425</v>
+      </c>
+      <c r="B3426" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3427" s="1">
+        <v>3426</v>
+      </c>
+      <c r="B3427" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3428" s="1">
+        <v>3427</v>
+      </c>
+      <c r="B3428" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3429" s="1">
+        <v>3428</v>
+      </c>
+      <c r="B3429" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3430" s="1">
+        <v>3429</v>
+      </c>
+      <c r="B3430" t="s">
+        <v>3428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
